--- a/docs/16S/16S_DataStatus_03_2016.xlsx
+++ b/docs/16S/16S_DataStatus_03_2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="1443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="1400">
   <si>
     <t>ID</t>
   </si>
@@ -4219,135 +4219,6 @@
   </si>
   <si>
     <t>/home/torres/Documents/Projects/Metagenome/data/RawData/last50/Sample_F01014/F01014_AGAGGTGT-GTCAACAC_L001_R2_001.fastq.gz</t>
-  </si>
-  <si>
-    <t>4040212FOC3</t>
-  </si>
-  <si>
-    <t>5795052FOC3</t>
-  </si>
-  <si>
-    <t>8774476FOC3</t>
-  </si>
-  <si>
-    <t>3126732FOC3</t>
-  </si>
-  <si>
-    <t>4321404FOC3</t>
-  </si>
-  <si>
-    <t>2893792FOC3</t>
-  </si>
-  <si>
-    <t>4465429FOC3</t>
-  </si>
-  <si>
-    <t>1468190FOC3</t>
-  </si>
-  <si>
-    <t>1329026FOC3</t>
-  </si>
-  <si>
-    <t>8546583SPC3</t>
-  </si>
-  <si>
-    <t>8012602SPC3</t>
-  </si>
-  <si>
-    <t>466598SPC3</t>
-  </si>
-  <si>
-    <t>2138233SPC3</t>
-  </si>
-  <si>
-    <t>8905301SPC3</t>
-  </si>
-  <si>
-    <t>2031223SPC3</t>
-  </si>
-  <si>
-    <t>3920586SPC3</t>
-  </si>
-  <si>
-    <t>4401991SPC3</t>
-  </si>
-  <si>
-    <t>5010045SPC3</t>
-  </si>
-  <si>
-    <t>591527SPC3</t>
-  </si>
-  <si>
-    <t>9100691SPC3</t>
-  </si>
-  <si>
-    <t>9126698SPC3</t>
-  </si>
-  <si>
-    <t>9740781SPC3</t>
-  </si>
-  <si>
-    <t>97991476SPC3</t>
-  </si>
-  <si>
-    <t>9791476SPC4</t>
-  </si>
-  <si>
-    <t>2402503SPC3</t>
-  </si>
-  <si>
-    <t>2548160SPC3</t>
-  </si>
-  <si>
-    <t>2548180SPC4</t>
-  </si>
-  <si>
-    <t>2934239SPC3</t>
-  </si>
-  <si>
-    <t>5090939SPC3</t>
-  </si>
-  <si>
-    <t>6821246SPC3</t>
-  </si>
-  <si>
-    <t>7662873SPC3</t>
-  </si>
-  <si>
-    <t>7562873SPC4</t>
-  </si>
-  <si>
-    <t>9237975SPC3</t>
-  </si>
-  <si>
-    <t>9483530SPC3</t>
-  </si>
-  <si>
-    <t>1790519SPC3</t>
-  </si>
-  <si>
-    <t>3627010SPC3</t>
-  </si>
-  <si>
-    <t>4895461SPC3</t>
-  </si>
-  <si>
-    <t>5222912SPC3</t>
-  </si>
-  <si>
-    <t>8305963SPC3</t>
-  </si>
-  <si>
-    <t>89452SPC3</t>
-  </si>
-  <si>
-    <t>9726339SPC3</t>
-  </si>
-  <si>
-    <t>5452003FOC3</t>
-  </si>
-  <si>
-    <t>4174111FOC3</t>
   </si>
 </sst>
 </file>
@@ -4689,7 +4560,7 @@
   <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F42" activeCellId="0" sqref="F42"/>
+      <selection pane="topLeft" activeCell="F42" activeCellId="1" sqref="E1:F40 F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -11071,7 +10942,7 @@
   <dimension ref="A1:C284"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A121" activeCellId="0" sqref="A121"/>
+      <selection pane="topLeft" activeCell="A121" activeCellId="1" sqref="E1:F40 A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -14509,7 +14380,7 @@
   <dimension ref="A1:C284"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A84" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A103" activeCellId="0" sqref="A103"/>
+      <selection pane="topLeft" activeCell="A103" activeCellId="1" sqref="E1:F40 A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -17661,7 +17532,7 @@
   <dimension ref="A1:C248"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A234" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A240" activeCellId="0" sqref="A240"/>
+      <selection pane="topLeft" activeCell="E273" activeCellId="1" sqref="E1:F40 E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -20414,226 +20285,358 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1:F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.8571428571429"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1400</v>
+        <v>1277</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1401</v>
+        <v>1280</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1402</v>
+        <v>1283</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1403</v>
+        <v>1286</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1404</v>
+        <v>1289</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1405</v>
+        <v>1292</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1406</v>
+        <v>1295</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1407</v>
+        <v>1298</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1408</v>
+        <v>1301</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1409</v>
+        <v>1304</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1410</v>
+        <v>1307</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1411</v>
+        <v>1310</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1412</v>
+        <v>1313</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1413</v>
+        <v>1316</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1414</v>
+        <v>1319</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1415</v>
+        <v>1322</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1416</v>
+        <v>1325</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1417</v>
+        <v>1328</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1418</v>
+        <v>1331</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1419</v>
+        <v>1334</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1420</v>
+        <v>1337</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1421</v>
+        <v>1340</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>1422</v>
+        <v>1343</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>1423</v>
+        <v>944</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22" t="s">
-        <v>1424</v>
+        <v>1346</v>
+      </c>
+      <c r="E24" s="22" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="20" t="s">
-        <v>1425</v>
+        <v>1349</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>1426</v>
+        <v>854</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1427</v>
+        <v>1352</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1428</v>
+        <v>1355</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1429</v>
+        <v>1358</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>1430</v>
+        <v>1361</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>1431</v>
+        <v>908</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1432</v>
+        <v>1364</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1433</v>
+        <v>1367</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1434</v>
+        <v>1370</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1435</v>
+        <v>1373</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1436</v>
+        <v>1376</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1437</v>
+        <v>1379</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1438</v>
+        <v>1382</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1439</v>
+        <v>1385</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>1440</v>
+        <v>1388</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1441</v>
+        <v>1391</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1442</v>
+        <v>1394</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
